--- a/Documents/Data/Technology & Engineering/category_Technology&Engineering.xlsx
+++ b/Documents/Data/Technology & Engineering/category_Technology&Engineering.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Author's Name</t>
   </si>
@@ -142,16 +142,75 @@
   </si>
   <si>
     <t>This quirky guide explains the chemistry and botanical history of over 150 plants, trees, flowers and fruits, showing how they form the bases of our favourite cocktails. Amy Stewart offers gardeners growing tips and provides cocktail enthusiasts with 50 drink recipes, as well as a rounded knowledge of the processes and plants which go into popular concoctions.</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Thing Explainer : Complicated Stuff in Simple Words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwegian Wood : Non-Fiction Book of the Year 2016
+</t>
+  </si>
+  <si>
+    <t>Elon Musk : How the Billionaire CEO of Spacex and Tesla is Shaping Our Future</t>
+  </si>
+  <si>
+    <t>The Food Lab : Better Home Cooking Through Science</t>
+  </si>
+  <si>
+    <t>The Art of War</t>
+  </si>
+  <si>
+    <t>Highest Duty : My Search for What Really Matters</t>
+  </si>
+  <si>
+    <t>Pale Blue Dot: a Vision of the Human Future in Space</t>
+  </si>
+  <si>
+    <t>The Grid : The Fraying Wires Between Americans and Our Energy Future</t>
+  </si>
+  <si>
+    <t>The Art of Fermentation : An In-depth Exploration of Essential Concepts and Processes from Around the World</t>
+  </si>
+  <si>
+    <t>The Drunken Botanist : The Plants That Create the World's Great Drinks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,11 +236,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,6 +261,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -239,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +345,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,6 +397,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,239 +590,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.75" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="30.125" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="38.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8">
+        <v>9781473620919</v>
+      </c>
+      <c r="G2" s="4">
+        <v>22.92</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="I2" s="5">
         <v>42332</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8">
+        <v>9780857052551</v>
+      </c>
+      <c r="G3" s="4">
+        <v>21.29</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="5">
         <v>42331</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8">
+        <v>9780753557525</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="I4" s="5">
         <v>42430</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9780393081084</v>
+      </c>
+      <c r="G5" s="4">
+        <v>70.12</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1">
+      <c r="I5" s="5">
         <v>42366</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9781599869773</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5.72</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1">
+      <c r="I6" s="5">
         <v>38867</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8">
+        <v>9780061924699</v>
+      </c>
+      <c r="G7" s="4">
+        <v>14.62</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1">
+      <c r="I7" s="5">
         <v>40791</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8">
+        <v>9780345376596</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15.07</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1">
+      <c r="I8" s="5">
         <v>35681</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="8">
+        <v>9781608196104</v>
+      </c>
+      <c r="G9" s="4">
+        <v>28.51</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="I9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8">
+        <v>9781603582865</v>
+      </c>
+      <c r="G10" s="4">
+        <v>36.08</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1">
+      <c r="I10" s="5">
         <v>42205</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9781616200466</v>
+      </c>
+      <c r="G11" s="4">
+        <v>20.38</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="1">
+      <c r="I11" s="5">
         <v>42011</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
